--- a/groups/24-25-Univers/tasks_results/25.01.10.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.10.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$L$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>№</t>
   </si>
@@ -136,6 +136,18 @@
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
     <t>982</t>
   </si>
   <si>
@@ -151,7 +163,7 @@
     <t>1+, 6-</t>
   </si>
   <si>
-    <t>4-</t>
+    <t>1+, 9-</t>
   </si>
   <si>
     <t>52C</t>
@@ -520,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -651,16 +663,16 @@
         <v>31</v>
       </c>
       <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -675,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -692,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -713,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -741,6 +753,9 @@
       <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -749,60 +764,94 @@
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>35</v>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L10"/>
+  <autoFilter ref="A1:L12"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -831,6 +880,8 @@
     <hyperlink ref="A8" r:id="rId25"/>
     <hyperlink ref="A9" r:id="rId26"/>
     <hyperlink ref="A10" r:id="rId27"/>
+    <hyperlink ref="A11" r:id="rId28"/>
+    <hyperlink ref="A12" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/25.01.10.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.10.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$L$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$M$12</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Мухаметов Максим</t>
   </si>
   <si>
+    <t>Мухаметов Максим v2</t>
+  </si>
+  <si>
     <t>Зайковский Артём</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>451152</t>
   </si>
   <si>
+    <t>369711</t>
+  </si>
+  <si>
     <t>520834</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>1+, 7-</t>
   </si>
   <si>
@@ -154,10 +163,10 @@
     <t>1082</t>
   </si>
   <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
     <t>2+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
   </si>
   <si>
     <t>1+, 6-</t>
@@ -532,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -541,10 +550,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,86 +590,95 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -669,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -690,15 +708,18 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -725,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -733,125 +754,161 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>51</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L12"/>
+  <autoFilter ref="A1:M12"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -864,24 +921,26 @@
     <hyperlink ref="J2" r:id="rId9"/>
     <hyperlink ref="K2" r:id="rId10"/>
     <hyperlink ref="L2" r:id="rId11"/>
-    <hyperlink ref="B3" r:id="rId12"/>
-    <hyperlink ref="C3" r:id="rId13"/>
-    <hyperlink ref="D3" r:id="rId14"/>
-    <hyperlink ref="E3" r:id="rId15"/>
-    <hyperlink ref="F3" r:id="rId16"/>
-    <hyperlink ref="G3" r:id="rId17"/>
-    <hyperlink ref="H3" r:id="rId18"/>
-    <hyperlink ref="I3" r:id="rId19"/>
-    <hyperlink ref="J3" r:id="rId20"/>
-    <hyperlink ref="K3" r:id="rId21"/>
-    <hyperlink ref="L3" r:id="rId22"/>
-    <hyperlink ref="A6" r:id="rId23"/>
-    <hyperlink ref="A7" r:id="rId24"/>
-    <hyperlink ref="A8" r:id="rId25"/>
-    <hyperlink ref="A9" r:id="rId26"/>
-    <hyperlink ref="A10" r:id="rId27"/>
-    <hyperlink ref="A11" r:id="rId28"/>
-    <hyperlink ref="A12" r:id="rId29"/>
+    <hyperlink ref="M2" r:id="rId12"/>
+    <hyperlink ref="B3" r:id="rId13"/>
+    <hyperlink ref="C3" r:id="rId14"/>
+    <hyperlink ref="D3" r:id="rId15"/>
+    <hyperlink ref="E3" r:id="rId16"/>
+    <hyperlink ref="F3" r:id="rId17"/>
+    <hyperlink ref="G3" r:id="rId18"/>
+    <hyperlink ref="H3" r:id="rId19"/>
+    <hyperlink ref="I3" r:id="rId20"/>
+    <hyperlink ref="J3" r:id="rId21"/>
+    <hyperlink ref="K3" r:id="rId22"/>
+    <hyperlink ref="L3" r:id="rId23"/>
+    <hyperlink ref="M3" r:id="rId24"/>
+    <hyperlink ref="A6" r:id="rId25"/>
+    <hyperlink ref="A7" r:id="rId26"/>
+    <hyperlink ref="A8" r:id="rId27"/>
+    <hyperlink ref="A9" r:id="rId28"/>
+    <hyperlink ref="A10" r:id="rId29"/>
+    <hyperlink ref="A11" r:id="rId30"/>
+    <hyperlink ref="A12" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/tasks_results/25.01.10.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>pchelka12</t>
+  </si>
+  <si>
+    <t>DanilGoose</t>
+  </si>
+  <si>
+    <t>kjuby</t>
   </si>
   <si>
     <t>+</t>
@@ -646,10 +652,10 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>28</v>
@@ -672,7 +678,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -687,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -754,148 +760,151 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/25.01.10.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>№</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>2-</t>
+  </si>
+  <si>
+    <t>3-</t>
   </si>
   <si>
     <t>640</t>
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -817,13 +820,16 @@
       <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="J8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -843,7 +849,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
@@ -866,7 +872,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>37</v>
@@ -875,19 +881,19 @@
         <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>36</v>
@@ -895,7 +901,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
@@ -904,7 +910,7 @@
         <v>41</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/groups/24-25-Univers/tasks_results/25.01.10.xlsx
+++ b/groups/24-25-Univers/tasks_results/25.01.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>№</t>
   </si>
@@ -118,6 +118,12 @@
     <t>kjuby</t>
   </si>
   <si>
+    <t>MaximTreg</t>
+  </si>
+  <si>
+    <t>azzazichka</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
   </si>
   <si>
     <t>52C</t>
+  </si>
+  <si>
+    <t>5-</t>
   </si>
 </sst>
 </file>
@@ -667,10 +676,10 @@
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>28</v>
@@ -681,7 +690,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -722,7 +731,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -763,154 +772,157 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
